--- a/xlsx/冰島_intext.xlsx
+++ b/xlsx/冰島_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="930">
   <si>
     <t>冰島</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_冰島</t>
+    <t>体育运动_体育运动_南非_冰島</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E8%AA%9E</t>
@@ -1478,10 +1478,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1562,10 +1586,10 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1574,6 +1598,12 @@
     <t>俄罗斯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
@@ -1610,10 +1640,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -1706,18 +1736,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1742,10 +1772,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1796,16 +1826,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1814,10 +1850,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -3117,7 +3153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I490"/>
+  <dimension ref="A1:I496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6071,7 +6107,7 @@
         <v>188</v>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -10798,7 +10834,7 @@
         <v>478</v>
       </c>
       <c r="G265" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10943,7 +10979,7 @@
         <v>488</v>
       </c>
       <c r="G270" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -10972,7 +11008,7 @@
         <v>490</v>
       </c>
       <c r="G271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -11001,7 +11037,7 @@
         <v>492</v>
       </c>
       <c r="G272" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -11030,7 +11066,7 @@
         <v>494</v>
       </c>
       <c r="G273" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -11059,7 +11095,7 @@
         <v>496</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11088,7 +11124,7 @@
         <v>498</v>
       </c>
       <c r="G275" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11117,7 +11153,7 @@
         <v>500</v>
       </c>
       <c r="G276" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11146,7 +11182,7 @@
         <v>502</v>
       </c>
       <c r="G277" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -11175,7 +11211,7 @@
         <v>504</v>
       </c>
       <c r="G278" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -11233,7 +11269,7 @@
         <v>508</v>
       </c>
       <c r="G280" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -11291,7 +11327,7 @@
         <v>512</v>
       </c>
       <c r="G282" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11320,7 +11356,7 @@
         <v>514</v>
       </c>
       <c r="G283" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11349,7 +11385,7 @@
         <v>516</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11378,7 +11414,7 @@
         <v>518</v>
       </c>
       <c r="G285" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11436,7 +11472,7 @@
         <v>522</v>
       </c>
       <c r="G287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11465,7 +11501,7 @@
         <v>524</v>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11494,7 +11530,7 @@
         <v>526</v>
       </c>
       <c r="G289" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11523,7 +11559,7 @@
         <v>528</v>
       </c>
       <c r="G290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11581,7 +11617,7 @@
         <v>532</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11610,7 +11646,7 @@
         <v>534</v>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11639,7 +11675,7 @@
         <v>536</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11871,7 +11907,7 @@
         <v>552</v>
       </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11929,7 +11965,7 @@
         <v>556</v>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11958,7 +11994,7 @@
         <v>558</v>
       </c>
       <c r="G305" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -11987,7 +12023,7 @@
         <v>560</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -12016,7 +12052,7 @@
         <v>562</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -12045,7 +12081,7 @@
         <v>564</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -12103,7 +12139,7 @@
         <v>568</v>
       </c>
       <c r="G310" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -12132,7 +12168,7 @@
         <v>570</v>
       </c>
       <c r="G311" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12161,7 +12197,7 @@
         <v>572</v>
       </c>
       <c r="G312" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12190,7 +12226,7 @@
         <v>574</v>
       </c>
       <c r="G313" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12248,7 +12284,7 @@
         <v>578</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12277,7 +12313,7 @@
         <v>580</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12306,7 +12342,7 @@
         <v>582</v>
       </c>
       <c r="G317" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12335,7 +12371,7 @@
         <v>584</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12422,7 +12458,7 @@
         <v>590</v>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12451,7 +12487,7 @@
         <v>592</v>
       </c>
       <c r="G322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12480,7 +12516,7 @@
         <v>594</v>
       </c>
       <c r="G323" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12538,7 +12574,7 @@
         <v>598</v>
       </c>
       <c r="G325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12567,7 +12603,7 @@
         <v>600</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12654,7 +12690,7 @@
         <v>606</v>
       </c>
       <c r="G329" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12712,7 +12748,7 @@
         <v>610</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12799,7 +12835,7 @@
         <v>616</v>
       </c>
       <c r="G334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -12828,7 +12864,7 @@
         <v>618</v>
       </c>
       <c r="G335" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12915,7 +12951,7 @@
         <v>624</v>
       </c>
       <c r="G338" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H338" t="s">
         <v>4</v>
@@ -12944,7 +12980,7 @@
         <v>626</v>
       </c>
       <c r="G339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -13002,7 +13038,7 @@
         <v>630</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13031,7 +13067,7 @@
         <v>632</v>
       </c>
       <c r="G342" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -13089,7 +13125,7 @@
         <v>636</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -13118,7 +13154,7 @@
         <v>638</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -13147,7 +13183,7 @@
         <v>640</v>
       </c>
       <c r="G346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -13176,7 +13212,7 @@
         <v>642</v>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -13205,7 +13241,7 @@
         <v>644</v>
       </c>
       <c r="G348" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13321,7 +13357,7 @@
         <v>652</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -13350,7 +13386,7 @@
         <v>654</v>
       </c>
       <c r="G353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13379,7 +13415,7 @@
         <v>656</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13547,10 +13583,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>577</v>
+        <v>667</v>
       </c>
       <c r="F360" t="s">
-        <v>578</v>
+        <v>668</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13576,10 +13612,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F361" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13605,13 +13641,13 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F362" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -13634,10 +13670,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>583</v>
+        <v>673</v>
       </c>
       <c r="F363" t="s">
-        <v>584</v>
+        <v>674</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13663,13 +13699,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F364" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="G364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13692,10 +13728,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F365" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13721,10 +13757,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>675</v>
+        <v>587</v>
       </c>
       <c r="F366" t="s">
-        <v>676</v>
+        <v>588</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13750,13 +13786,13 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F367" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -13779,13 +13815,13 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F368" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -13808,10 +13844,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>681</v>
+        <v>593</v>
       </c>
       <c r="F369" t="s">
-        <v>682</v>
+        <v>594</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13901,7 +13937,7 @@
         <v>688</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -13930,7 +13966,7 @@
         <v>690</v>
       </c>
       <c r="G373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -13988,7 +14024,7 @@
         <v>694</v>
       </c>
       <c r="G375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -14017,7 +14053,7 @@
         <v>696</v>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -14162,7 +14198,7 @@
         <v>706</v>
       </c>
       <c r="G381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -14278,7 +14314,7 @@
         <v>714</v>
       </c>
       <c r="G385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -14336,7 +14372,7 @@
         <v>718</v>
       </c>
       <c r="G387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -14452,7 +14488,7 @@
         <v>726</v>
       </c>
       <c r="G391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14510,7 +14546,7 @@
         <v>730</v>
       </c>
       <c r="G393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -14568,7 +14604,7 @@
         <v>734</v>
       </c>
       <c r="G395" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H395" t="s">
         <v>4</v>
@@ -14742,7 +14778,7 @@
         <v>746</v>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
@@ -14852,10 +14888,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>141</v>
+        <v>753</v>
       </c>
       <c r="F405" t="s">
-        <v>142</v>
+        <v>754</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14881,10 +14917,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="F406" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14910,10 +14946,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F407" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14939,10 +14975,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F408" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14968,10 +15004,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F409" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14997,10 +15033,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F410" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15026,10 +15062,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>763</v>
+        <v>141</v>
       </c>
       <c r="F411" t="s">
-        <v>764</v>
+        <v>142</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15090,7 +15126,7 @@
         <v>768</v>
       </c>
       <c r="G413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -15177,7 +15213,7 @@
         <v>774</v>
       </c>
       <c r="G416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -15235,7 +15271,7 @@
         <v>778</v>
       </c>
       <c r="G418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -15264,7 +15300,7 @@
         <v>780</v>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15293,7 +15329,7 @@
         <v>782</v>
       </c>
       <c r="G420" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
@@ -15322,7 +15358,7 @@
         <v>784</v>
       </c>
       <c r="G421" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -15351,7 +15387,7 @@
         <v>786</v>
       </c>
       <c r="G422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
@@ -15409,7 +15445,7 @@
         <v>790</v>
       </c>
       <c r="G424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
@@ -15467,7 +15503,7 @@
         <v>794</v>
       </c>
       <c r="G426" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -15496,7 +15532,7 @@
         <v>796</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
@@ -15583,7 +15619,7 @@
         <v>802</v>
       </c>
       <c r="G430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
@@ -15612,7 +15648,7 @@
         <v>804</v>
       </c>
       <c r="G431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
@@ -15786,7 +15822,7 @@
         <v>816</v>
       </c>
       <c r="G437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H437" t="s">
         <v>4</v>
@@ -15931,7 +15967,7 @@
         <v>826</v>
       </c>
       <c r="G442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -16134,7 +16170,7 @@
         <v>840</v>
       </c>
       <c r="G449" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -16244,10 +16280,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>677</v>
+        <v>847</v>
       </c>
       <c r="F453" t="s">
-        <v>678</v>
+        <v>848</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16273,10 +16309,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F454" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16302,13 +16338,13 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F455" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G455" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H455" t="s">
         <v>4</v>
@@ -16331,10 +16367,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F456" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16360,10 +16396,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F457" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16389,10 +16425,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F458" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16418,10 +16454,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>857</v>
+        <v>689</v>
       </c>
       <c r="F459" t="s">
-        <v>858</v>
+        <v>690</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16708,10 +16744,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>659</v>
+        <v>877</v>
       </c>
       <c r="F469" t="s">
-        <v>660</v>
+        <v>878</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16737,10 +16773,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F470" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16766,10 +16802,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F471" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16795,10 +16831,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F472" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16824,10 +16860,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F473" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16853,10 +16889,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F474" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16882,10 +16918,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>887</v>
+        <v>671</v>
       </c>
       <c r="F475" t="s">
-        <v>888</v>
+        <v>672</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17091,7 +17127,7 @@
         <v>902</v>
       </c>
       <c r="G482" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -17265,7 +17301,7 @@
         <v>914</v>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -17294,7 +17330,7 @@
         <v>916</v>
       </c>
       <c r="G489" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -17317,10 +17353,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F490" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17329,6 +17365,180 @@
         <v>4</v>
       </c>
       <c r="I490" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>0</v>
+      </c>
+      <c r="C491" t="s">
+        <v>1</v>
+      </c>
+      <c r="D491" t="n">
+        <v>490</v>
+      </c>
+      <c r="E491" t="s">
+        <v>919</v>
+      </c>
+      <c r="F491" t="s">
+        <v>920</v>
+      </c>
+      <c r="G491" t="n">
+        <v>1</v>
+      </c>
+      <c r="H491" t="s">
+        <v>4</v>
+      </c>
+      <c r="I491" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1</v>
+      </c>
+      <c r="D492" t="n">
+        <v>491</v>
+      </c>
+      <c r="E492" t="s">
+        <v>921</v>
+      </c>
+      <c r="F492" t="s">
+        <v>922</v>
+      </c>
+      <c r="G492" t="n">
+        <v>1</v>
+      </c>
+      <c r="H492" t="s">
+        <v>4</v>
+      </c>
+      <c r="I492" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>0</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1</v>
+      </c>
+      <c r="D493" t="n">
+        <v>492</v>
+      </c>
+      <c r="E493" t="s">
+        <v>923</v>
+      </c>
+      <c r="F493" t="s">
+        <v>924</v>
+      </c>
+      <c r="G493" t="n">
+        <v>1</v>
+      </c>
+      <c r="H493" t="s">
+        <v>4</v>
+      </c>
+      <c r="I493" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>0</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1</v>
+      </c>
+      <c r="D494" t="n">
+        <v>493</v>
+      </c>
+      <c r="E494" t="s">
+        <v>925</v>
+      </c>
+      <c r="F494" t="s">
+        <v>926</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1</v>
+      </c>
+      <c r="H494" t="s">
+        <v>4</v>
+      </c>
+      <c r="I494" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>0</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1</v>
+      </c>
+      <c r="D495" t="n">
+        <v>494</v>
+      </c>
+      <c r="E495" t="s">
+        <v>927</v>
+      </c>
+      <c r="F495" t="s">
+        <v>928</v>
+      </c>
+      <c r="G495" t="n">
+        <v>16</v>
+      </c>
+      <c r="H495" t="s">
+        <v>4</v>
+      </c>
+      <c r="I495" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>0</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1</v>
+      </c>
+      <c r="D496" t="n">
+        <v>495</v>
+      </c>
+      <c r="E496" t="s">
+        <v>927</v>
+      </c>
+      <c r="F496" t="s">
+        <v>929</v>
+      </c>
+      <c r="G496" t="n">
+        <v>1</v>
+      </c>
+      <c r="H496" t="s">
+        <v>4</v>
+      </c>
+      <c r="I496" t="n">
         <v>3</v>
       </c>
     </row>
